--- a/OnlineResultCheckPortal/StudentExecelSheet/StudentResult.xlsx
+++ b/OnlineResultCheckPortal/StudentExecelSheet/StudentResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>AS/AJ/001</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Mohali</t>
   </si>
   <si>
-    <t>Punjab</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -340,13 +337,46 @@
   </si>
   <si>
     <t>Secondary School</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Government </t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +397,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,10 +431,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,261 +745,263 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1">
-        <v>2001</v>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>2001</v>
@@ -968,31 +1009,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <v>2001</v>
@@ -1000,31 +1041,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>2001</v>
@@ -1032,31 +1073,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <v>2001</v>
@@ -1064,31 +1105,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>2001</v>
@@ -1096,31 +1137,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <v>2001</v>
@@ -1128,31 +1169,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
+      <c r="F14" t="s">
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <v>2001</v>
@@ -1160,31 +1201,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15">
         <v>2001</v>
@@ -1192,31 +1233,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16">
         <v>2001</v>
@@ -1224,31 +1265,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17">
         <v>2001</v>
@@ -1256,31 +1297,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>72</v>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>2001</v>
@@ -1288,31 +1329,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19">
         <v>2001</v>
@@ -1320,31 +1361,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
+      <c r="F20" t="s">
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <v>2001</v>
@@ -1352,31 +1393,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21">
         <v>2001</v>
@@ -1384,31 +1425,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
-        <v>13</v>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22">
         <v>2001</v>
@@ -1416,31 +1457,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
+      <c r="F23" t="s">
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23">
         <v>2001</v>
@@ -1448,31 +1489,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>72</v>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <v>2001</v>
@@ -1480,39 +1521,71 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
         <v>105</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25">
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26">
         <v>2001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="Small Steps Convent School" display="http://www.indiacom.com/ludhiana/small-steps-convent-school_ludhiana_lud_68036.html"/>
+    <hyperlink ref="F3" r:id="rId1" tooltip="Small Steps Convent School" display="http://www.indiacom.com/ludhiana/small-steps-convent-school_ludhiana_lud_68036.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
